--- a/doc/erp_数据库.xlsx
+++ b/doc/erp_数据库.xlsx
@@ -5196,8 +5196,8 @@
   <sheetPr/>
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/doc/erp_数据库.xlsx
+++ b/doc/erp_数据库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="861" firstSheet="12" activeTab="16"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="861"/>
   </bookViews>
   <sheets>
     <sheet name="数据表" sheetId="2" r:id="rId1"/>
@@ -1733,9 +1733,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -2694,7 +2694,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
@@ -3041,8 +3041,8 @@
   <sheetPr/>
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3283,19 +3283,19 @@
       </c>
       <c r="B36" s="17"/>
     </row>
-    <row r="37" ht="19.5" spans="1:2">
+    <row r="37" spans="1:2">
       <c r="A37" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" ht="19.5" spans="1:2">
+    <row r="38" spans="1:2">
       <c r="A38" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="17" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3323,7 +3323,6 @@
       <c r="C1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1"/>
       <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
@@ -4776,7 +4775,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="23.25" spans="1:6">
+    <row r="6" customFormat="1" ht="14.25" spans="1:6">
       <c r="A6" s="6" t="s">
         <v>447</v>
       </c>
@@ -5196,7 +5195,7 @@
   <sheetPr/>
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
@@ -7053,7 +7052,7 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F92"/>
+      <selection activeCell="M118" sqref="M118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -12150,7 +12149,6 @@
       <c r="C1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1"/>
       <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
@@ -12370,7 +12368,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" ht="14.25" spans="1:6">
       <c r="A13" s="6" t="s">
         <v>398</v>
       </c>
@@ -12799,7 +12797,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" ht="14.25" spans="1:6">
       <c r="A5" s="6" t="s">
         <v>415</v>
       </c>
